--- a/0_Documentation/Imputed_variables.xlsx
+++ b/0_Documentation/Imputed_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Zika_imputation/0_Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{784B5466-A8F2-C542-A5C3-F606FAA6F452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F2DA18-10D0-754E-AB79-35F7157E5281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="840" windowWidth="28640" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="840" windowWidth="28640" windowHeight="15920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modifiers, confounders imputed" sheetId="4" r:id="rId1"/>
@@ -2250,79 +2250,6 @@
   </cellStyles>
   <dxfs count="27">
     <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
@@ -2480,6 +2407,79 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFFFF"/>
           <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2711,7 +2711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FD7EB4-5A16-9D47-AF38-A04D206027D9}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2774,17 +2774,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A11">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>B="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A11">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A11">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>B="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2796,8 +2796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F50B05-446B-A74C-8A7C-F7EA30855263}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2946,17 +2946,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A20 A2:B19">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20 A2:B19">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>B="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B20">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2969,7 +2969,7 @@
   <dimension ref="A2:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3049,12 +3049,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A9:A12 A3:A4">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A8">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3068,7 +3068,7 @@
   <dimension ref="A1:AC995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E59" sqref="E6:E59"/>
+      <selection activeCell="E126" sqref="E124:E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -36925,97 +36925,97 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="B175:D175">
-    <cfRule type="expression" dxfId="26" priority="5">
+    <cfRule type="expression" dxfId="18" priority="5">
       <formula>$K171="Maybe - needs discussion"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E173:G173 I173">
-    <cfRule type="expression" dxfId="25" priority="6">
+    <cfRule type="expression" dxfId="17" priority="6">
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J179">
-    <cfRule type="expression" dxfId="24" priority="7">
+    <cfRule type="expression" dxfId="16" priority="7">
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J188:J198 J200:J227 E227:G227 E226 D80:D84 D86:D89 D91:D92 D114:D116 D119:D120 D124 D126 D143:D148 D156:D157 D12:D14 D23:D24 D26:D27 D29 D31 D41:D43 D45:D51 D58:D59 D61:D66 I227 E188:G225 E168:G172 D68:D76 D2:D9 I188:I225 I168:I172 J168:J185 E174:G186 B168:D227 B229:G234 I174:I185 I186:J186 I229:J234 D110:D112">
-    <cfRule type="expression" dxfId="23" priority="8">
+    <cfRule type="expression" dxfId="15" priority="8">
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J188:J198 J200:J227 E227:G227 E226 D80:D84 D86:D89 D91:D92 D114:D116 D119:D120 D124 D126 D143:D148 D156:D157 I227 I6:J76 I188:I225 I168:J186 B158:D227 B1:J5 B229:J234 B6:G76 G83 G86 G115:G116 E168:G186 E188:G225 B110:D112 H3:H234">
-    <cfRule type="expression" dxfId="22" priority="9">
+    <cfRule type="expression" dxfId="14" priority="9">
       <formula>B="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B205:D205 B196:D196">
-    <cfRule type="expression" dxfId="21" priority="10">
+    <cfRule type="expression" dxfId="13" priority="10">
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B197:D204 B206:D212">
-    <cfRule type="expression" dxfId="20" priority="11">
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B175:D175">
-    <cfRule type="expression" dxfId="19" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B176:D178">
-    <cfRule type="expression" dxfId="18" priority="13">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79:G79 I79:J79 B158:G227 B229:G234 I153:I185 I186:J227 I229:J234 J77:J185 B110:C112 E110:G112 I77:I148">
-    <cfRule type="expression" dxfId="17" priority="14">
+    <cfRule type="expression" dxfId="9" priority="14">
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:C89 B91:C92 B114:C116 B119:C120 B124:C124 B126:C126 B149:D155 B143:C148 B77:G79 B80:C84 B156:C157 E153:G157 E143:G148 B127:G142 E126:G126 B125:G125 E124:G124 B121:G123 E119:G120 B117:G118 E114:G114 B113:G113 B93:G109 E91:G92 B90:G90 E87:G89 B85:G85 E80:G82 E84:G84 E83:F83 E86:F86 E115:F116">
-    <cfRule type="expression" dxfId="16" priority="15">
+    <cfRule type="expression" dxfId="8" priority="15">
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96:G97 B85:D85 B90:G90 B86:C89 B93:D109 B91:C92 B113:D113 B117:G118 B114:C116 B121:D123 B119:C120 B125:D125 B124:C124 B127:D142 B126:C126 B149:D155 B143:C148 B77:G79 B80:C84 B156:C157 E114:G114 E91:G94 E87:G89 E80:G82 I77:J83 I114:J118 I87:J94 I96:J97 E83:F83 E115:F116">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="7" priority="16">
       <formula>B="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J12 B10:G11 J14:J76 B15:G22 B25:G25 B44:G44 B41:C43 B52:G57 B45:C51 B6:C9 E6:G9 B12:C14 E12:G14 B23:C24 E23:G24 B28:G28 B26:C27 E26:G27 B30:G30 B29:C29 E29:G29 B32:G40 B31:C31 E31:G31 E41:G43 E45:G51 B60:G60 B58:C59 E58:G59 B67:G67 B61:C66 B68:C76 E68:G76 I6:I76 E61:G66 G83 G86 G115:G116 G168:G169 G176 G181 G186 G225">
-    <cfRule type="expression" dxfId="14" priority="17">
+    <cfRule type="expression" dxfId="6" priority="17">
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:J76 J6:J12 B10:G11 B15:G22 B25:G25 B44:G44 B41:C43 B52:G57 B45:C51 B6:C9 E6:G9 B12:C14 E12:G14 B23:C24 E23:G24 B28:G28 B26:C27 E26:G27 B30:G30 B29:C29 E29:G29 B32:G40 B31:C31 E31:G31 E41:G43 E45:G51 B60:G60 B58:C59 E58:G59 B67:G67 B61:C66 B68:C76 E68:G76 I6:I76 E61:G66 G83 G86 G115:G116 G168:G169 G176 G181 G186 G225">
-    <cfRule type="expression" dxfId="13" priority="18">
+    <cfRule type="expression" dxfId="5" priority="18">
       <formula>B="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86 I86">
-    <cfRule type="expression" dxfId="12" priority="23">
+    <cfRule type="expression" dxfId="4" priority="23">
       <formula>B="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5">
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>B="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:G5">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>#REF!="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:G5">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>B="metadata"</formula>
     </cfRule>
   </conditionalFormatting>
